--- a/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Khal_Hydrologic_Calculation.xlsx
+++ b/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Khal_Hydrologic_Calculation.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-Circle-8\Satakhira_DIV_I\FY_23_24\Khal\Khal Data Pol-15\Satkhira all Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design-Circle-8\Satakhira_DIV_I\FY_23_24\Khal\Khal Data Pol-15\Satkhira all Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA12FA-85D5-4D2D-9E85-12BA79C6F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="6720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,16 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,29 +446,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -511,14 +517,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5401250.608</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2">
@@ -550,7 +556,7 @@
         <f>(70-(7/4)*E2)/100</f>
         <v>0.66350506345945948</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>135</v>
       </c>
       <c r="M2" s="2">
@@ -577,14 +583,14 @@
         <v>5.8110132389280231</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>6180381.2110000001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
@@ -616,7 +622,7 @@
         <f t="shared" ref="K3:K7" si="4">(70-(7/4)*E3)/100</f>
         <v>0.65824066749324317</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>135</v>
       </c>
       <c r="M3" s="2">
@@ -643,14 +649,14 @@
         <v>6.628209622400373</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1949843.923</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
@@ -682,7 +688,7 @@
         <f t="shared" si="4"/>
         <v>0.68682537889864859</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>135</v>
       </c>
       <c r="M4" s="2">
@@ -709,14 +715,14 @@
         <v>2.1271758085259433</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>7322401.0159999998</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
@@ -748,7 +754,7 @@
         <f t="shared" si="4"/>
         <v>0.65052431745945938</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>135</v>
       </c>
       <c r="M5" s="2">
@@ -775,14 +781,14 @@
         <v>7.8164372617372999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1944543.4310000001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
@@ -814,7 +820,7 @@
         <f>(70-(7/4)*E6)/100</f>
         <v>0.68686119303378379</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>135</v>
       </c>
       <c r="M6" s="2">
@@ -841,14 +847,14 @@
         <v>2.1214382949696189</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>8609578.9910000004</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2">
@@ -880,7 +886,7 @@
         <f t="shared" si="4"/>
         <v>0.64182716897972969</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>135</v>
       </c>
       <c r="M7" s="2">
@@ -907,13 +913,13 @@
         <v>9.1420325357309071</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
         <v>3140.7999180000006</v>
       </c>

--- a/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Khal_Hydrologic_Calculation.xlsx
+++ b/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Khal_Hydrologic_Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design-Circle-8\Satakhira_DIV_I\FY_23_24\Khal\Khal Data Pol-15\Satkhira all Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA12FA-85D5-4D2D-9E85-12BA79C6F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BF8B0-747B-4DC1-8AA5-638B40AF5A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,12 +123,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -158,13 +164,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:R5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,133 +663,133 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1949843.923</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>194.9843923</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>0.75283549150579154</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>2.298</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>1.4282162834058423</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <f t="shared" si="3"/>
         <v>24.164921398960541</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>-0.4</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <f t="shared" si="4"/>
         <v>0.68682537889864859</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>135</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0.73</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="5">
         <f t="shared" si="5"/>
         <v>98.55</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5">
         <f t="shared" si="6"/>
         <v>59.129999999999995</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="5">
         <f t="shared" si="7"/>
         <v>99.741984654277076</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="5">
         <f t="shared" si="8"/>
         <v>75.089306040965795</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="5">
         <f t="shared" si="9"/>
         <v>2.1271758085259433</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>7322401.0159999998</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>732.2401016</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>2.8271818594594595</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>4.0170000000000003</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>2.4965817277812308</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>33.784420294133085</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>-0.4</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>0.65052431745945938</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>135</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>0.73</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="5">
         <f t="shared" si="5"/>
         <v>98.55</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <f t="shared" si="6"/>
         <v>59.129999999999995</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="5">
         <f t="shared" si="7"/>
         <v>97.595502891377834</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="5">
         <f t="shared" si="8"/>
         <v>275.92023533932667</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="5">
         <f t="shared" si="9"/>
         <v>7.8164372617372999</v>
       </c>
